--- a/REGULAR/ASSESSOR/MARINDUQUE, MARISSA.xlsx
+++ b/REGULAR/ASSESSOR/MARINDUQUE, MARISSA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ASSESSOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ASSESSOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C809B1-ABC4-4EA2-92BF-AE18C2A756CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="351">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1092,7 +1091,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1793,7 +1792,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1810,25 +1809,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K556" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K556" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2135,34 +2134,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K556"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="2220" topLeftCell="A515" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B515" sqref="B515"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <pane ySplit="2220" topLeftCell="A518" activePane="bottomLeft"/>
+      <selection activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="I527" sqref="I527"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2183,7 +2182,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2200,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2221,7 +2220,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2229,7 +2228,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2242,7 +2241,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2259,7 +2258,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2303,7 +2302,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>143.91799999999984</v>
+        <v>146.41799999999984</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2313,12 +2312,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
+        <v>258.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>61</v>
       </c>
@@ -2336,7 +2335,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35226</v>
       </c>
@@ -2356,7 +2355,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35277</v>
       </c>
@@ -2376,7 +2375,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>35308</v>
       </c>
@@ -2396,7 +2395,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>35338</v>
       </c>
@@ -2416,7 +2415,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>35369</v>
       </c>
@@ -2436,7 +2435,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35399</v>
       </c>
@@ -2456,7 +2455,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>35430</v>
       </c>
@@ -2480,7 +2479,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>63</v>
       </c>
@@ -2498,7 +2497,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>35461</v>
       </c>
@@ -2518,7 +2517,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>35489</v>
       </c>
@@ -2538,7 +2537,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>35520</v>
       </c>
@@ -2558,7 +2557,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>35550</v>
       </c>
@@ -2578,7 +2577,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>35581</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>35611</v>
       </c>
@@ -2624,7 +2623,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>35642</v>
       </c>
@@ -2644,7 +2643,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>35673</v>
       </c>
@@ -2664,7 +2663,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>35703</v>
       </c>
@@ -2684,7 +2683,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>35734</v>
       </c>
@@ -2704,7 +2703,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>35764</v>
       </c>
@@ -2724,7 +2723,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>35795</v>
       </c>
@@ -2748,7 +2747,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>65</v>
       </c>
@@ -2766,7 +2765,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>35826</v>
       </c>
@@ -2786,7 +2785,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>35854</v>
       </c>
@@ -2810,7 +2809,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>35885</v>
       </c>
@@ -2830,7 +2829,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>35915</v>
       </c>
@@ -2850,7 +2849,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35946</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>35976</v>
       </c>
@@ -2896,7 +2895,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36007</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>36038</v>
       </c>
@@ -2940,7 +2939,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36068</v>
       </c>
@@ -2960,7 +2959,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>36099</v>
       </c>
@@ -2984,7 +2983,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>36129</v>
       </c>
@@ -3008,7 +3007,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>36160</v>
       </c>
@@ -3032,7 +3031,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>73</v>
@@ -3052,7 +3051,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>74</v>
       </c>
@@ -3070,7 +3069,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36191</v>
       </c>
@@ -3094,7 +3093,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>36219</v>
       </c>
@@ -3118,7 +3117,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>36250</v>
       </c>
@@ -3138,7 +3137,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36280</v>
       </c>
@@ -3158,7 +3157,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>36311</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>67</v>
@@ -3201,7 +3200,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>36341</v>
       </c>
@@ -3225,7 +3224,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>36372</v>
       </c>
@@ -3249,7 +3248,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>36403</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>36398</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>79</v>
@@ -3292,7 +3291,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>36433</v>
       </c>
@@ -3316,7 +3315,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>36464</v>
       </c>
@@ -3336,7 +3335,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>36494</v>
       </c>
@@ -3356,7 +3355,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>36525</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>82</v>
@@ -3402,7 +3401,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>84</v>
       </c>
@@ -3420,7 +3419,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>36556</v>
       </c>
@@ -3444,7 +3443,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>44</v>
@@ -3461,7 +3460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>36585</v>
       </c>
@@ -3485,7 +3484,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>36616</v>
       </c>
@@ -3509,7 +3508,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>36646</v>
       </c>
@@ -3533,7 +3532,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>36677</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>88</v>
@@ -3576,7 +3575,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>36707</v>
       </c>
@@ -3596,7 +3595,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>36738</v>
       </c>
@@ -3616,7 +3615,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>36769</v>
       </c>
@@ -3636,7 +3635,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>36799</v>
       </c>
@@ -3656,7 +3655,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>36830</v>
       </c>
@@ -3676,7 +3675,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>36860</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>36859</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>36891</v>
       </c>
@@ -3726,7 +3725,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>91</v>
       </c>
@@ -3744,7 +3743,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>36922</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>36903</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>44</v>
@@ -3787,7 +3786,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>36950</v>
       </c>
@@ -3807,7 +3806,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>36981</v>
       </c>
@@ -3827,7 +3826,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>37011</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>48</v>
@@ -3872,7 +3871,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -3891,7 +3890,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>37042</v>
       </c>
@@ -3911,7 +3910,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>37072</v>
       </c>
@@ -3931,7 +3930,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>37103</v>
       </c>
@@ -3951,7 +3950,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>37134</v>
       </c>
@@ -3971,7 +3970,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>37164</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>37195</v>
       </c>
@@ -4011,7 +4010,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>37225</v>
       </c>
@@ -4031,7 +4030,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>37256</v>
       </c>
@@ -4051,7 +4050,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
         <v>96</v>
       </c>
@@ -4069,7 +4068,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>37287</v>
       </c>
@@ -4089,7 +4088,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>37315</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>37346</v>
       </c>
@@ -4133,7 +4132,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>37376</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>37407</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>46</v>
@@ -4200,7 +4199,7 @@
         <v>37412</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>37437</v>
       </c>
@@ -4220,7 +4219,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>37468</v>
       </c>
@@ -4240,7 +4239,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>37499</v>
       </c>
@@ -4260,7 +4259,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>37529</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>37560</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>37590</v>
       </c>
@@ -4326,7 +4325,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>37621</v>
       </c>
@@ -4350,7 +4349,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
         <v>101</v>
       </c>
@@ -4368,7 +4367,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>37652</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>47</v>
@@ -4411,7 +4410,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>44</v>
@@ -4428,7 +4427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>44</v>
@@ -4445,7 +4444,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>104</v>
@@ -4462,7 +4461,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>37680</v>
       </c>
@@ -4482,7 +4481,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>37711</v>
       </c>
@@ -4502,7 +4501,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>37741</v>
       </c>
@@ -4522,7 +4521,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>37772</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>37802</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>37833</v>
       </c>
@@ -4594,7 +4593,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>37864</v>
       </c>
@@ -4614,7 +4613,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>37894</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>111</v>
@@ -4657,7 +4656,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>37925</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>37897</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>113</v>
@@ -4700,7 +4699,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>37955</v>
       </c>
@@ -4724,7 +4723,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>37986</v>
       </c>
@@ -4748,7 +4747,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
         <v>116</v>
       </c>
@@ -4766,7 +4765,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>38017</v>
       </c>
@@ -4790,7 +4789,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>44</v>
@@ -4807,7 +4806,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>44</v>
@@ -4824,7 +4823,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>38046</v>
       </c>
@@ -4848,7 +4847,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>38077</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>38055</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>120</v>
@@ -4891,7 +4890,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>38107</v>
       </c>
@@ -4915,7 +4914,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>38138</v>
       </c>
@@ -4939,7 +4938,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>38168</v>
       </c>
@@ -4963,7 +4962,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>76</v>
@@ -4982,7 +4981,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>48</v>
@@ -5001,7 +5000,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>38199</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>124</v>
@@ -5044,7 +5043,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>38230</v>
       </c>
@@ -5068,7 +5067,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>38260</v>
       </c>
@@ -5092,7 +5091,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>80</v>
@@ -5109,7 +5108,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>38291</v>
       </c>
@@ -5133,7 +5132,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38321</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>38315</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>129</v>
@@ -5176,7 +5175,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38352</v>
       </c>
@@ -5200,7 +5199,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
         <v>131</v>
       </c>
@@ -5218,7 +5217,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>38383</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>133</v>
@@ -5259,7 +5258,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>38411</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>38406</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>134</v>
@@ -5302,7 +5301,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="50"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>38442</v>
       </c>
@@ -5326,7 +5325,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>38472</v>
       </c>
@@ -5350,7 +5349,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>44</v>
@@ -5367,7 +5366,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>38503</v>
       </c>
@@ -5391,7 +5390,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>138</v>
@@ -5408,7 +5407,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>38533</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>139</v>
@@ -5449,7 +5448,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>38564</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>141</v>
@@ -5492,7 +5491,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="48"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>38595</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>142</v>
@@ -5535,7 +5534,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="48"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>38625</v>
       </c>
@@ -5559,7 +5558,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>38656</v>
       </c>
@@ -5583,7 +5582,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>38686</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -5626,7 +5625,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>38717</v>
       </c>
@@ -5650,7 +5649,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="47" t="s">
         <v>147</v>
       </c>
@@ -5668,7 +5667,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>38748</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>38730</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>44</v>
@@ -5711,7 +5710,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>149</v>
@@ -5728,7 +5727,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>38776</v>
       </c>
@@ -5752,7 +5751,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>38807</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>38837</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>44</v>
@@ -5821,7 +5820,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>152</v>
@@ -5838,7 +5837,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>38868</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>154</v>
@@ -5881,7 +5880,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>38898</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>38870</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>156</v>
@@ -5924,7 +5923,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>38929</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>158</v>
@@ -5967,7 +5966,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>38960</v>
       </c>
@@ -5991,7 +5990,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>38990</v>
       </c>
@@ -6015,7 +6014,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>39021</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>38996</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>161</v>
@@ -6058,7 +6057,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>39051</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>39048</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>53</v>
@@ -6103,7 +6102,7 @@
         <v>39057</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>162</v>
@@ -6120,7 +6119,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="48"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>39082</v>
       </c>
@@ -6144,7 +6143,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>163</v>
       </c>
@@ -6162,7 +6161,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>39113</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>46</v>
@@ -6207,7 +6206,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -6224,7 +6223,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>39141</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>39129</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>48</v>
@@ -6269,7 +6268,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>166</v>
@@ -6286,7 +6285,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>39172</v>
       </c>
@@ -6310,7 +6309,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>39202</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>39176</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>169</v>
@@ -6353,7 +6352,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>39233</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>46</v>
@@ -6398,7 +6397,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>170</v>
@@ -6415,7 +6414,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>39263</v>
       </c>
@@ -6439,7 +6438,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>39294</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>48</v>
@@ -6484,7 +6483,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>173</v>
@@ -6501,7 +6500,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>39325</v>
       </c>
@@ -6527,7 +6526,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>176</v>
@@ -6544,7 +6543,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>39355</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>177</v>
@@ -6587,7 +6586,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>39386</v>
       </c>
@@ -6607,7 +6606,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>39416</v>
       </c>
@@ -6631,7 +6630,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>44</v>
@@ -6648,7 +6647,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>179</v>
@@ -6665,7 +6664,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>180</v>
@@ -6682,7 +6681,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>39447</v>
       </c>
@@ -6706,7 +6705,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>185</v>
@@ -6723,7 +6722,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>184</v>
       </c>
@@ -6741,7 +6740,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>39478</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>44</v>
@@ -6784,7 +6783,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>188</v>
@@ -6801,7 +6800,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>39507</v>
       </c>
@@ -6825,7 +6824,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>39538</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>39510</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>44</v>
@@ -6868,7 +6867,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>190</v>
@@ -6885,7 +6884,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>39568</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>192</v>
@@ -6928,7 +6927,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>39599</v>
       </c>
@@ -6952,7 +6951,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>39629</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>196</v>
@@ -6995,7 +6994,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>39660</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>197</v>
@@ -7038,7 +7037,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>39691</v>
       </c>
@@ -7062,7 +7061,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>39721</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>142</v>
@@ -7105,7 +7104,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>39752</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>201</v>
@@ -7148,7 +7147,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>39782</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>48</v>
@@ -7193,7 +7192,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>203</v>
@@ -7210,7 +7209,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="48"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>39813</v>
       </c>
@@ -7234,7 +7233,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>204</v>
@@ -7254,7 +7253,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="47" t="s">
         <v>205</v>
       </c>
@@ -7272,7 +7271,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>39844</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>39842</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>44</v>
@@ -7313,7 +7312,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>206</v>
@@ -7330,7 +7329,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>39872</v>
       </c>
@@ -7354,7 +7353,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>39903</v>
       </c>
@@ -7378,7 +7377,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>39933</v>
       </c>
@@ -7402,7 +7401,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>39964</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>39937</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>100</v>
@@ -7447,7 +7446,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>211</v>
@@ -7464,7 +7463,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>39994</v>
       </c>
@@ -7488,7 +7487,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>40025</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>48</v>
@@ -7533,7 +7532,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>214</v>
@@ -7550,7 +7549,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>40056</v>
       </c>
@@ -7574,7 +7573,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>40086</v>
       </c>
@@ -7598,7 +7597,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>40117</v>
       </c>
@@ -7622,7 +7621,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>40147</v>
       </c>
@@ -7646,7 +7645,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>48</v>
@@ -7665,7 +7664,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>40178</v>
       </c>
@@ -7689,7 +7688,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>46</v>
@@ -7711,7 +7710,7 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>222</v>
@@ -7728,7 +7727,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="48"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="47" t="s">
         <v>221</v>
       </c>
@@ -7746,7 +7745,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>40209</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>223</v>
@@ -7787,7 +7786,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>48</v>
@@ -7806,7 +7805,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>40237</v>
       </c>
@@ -7828,7 +7827,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>40268</v>
       </c>
@@ -7850,7 +7849,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>40298</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>44</v>
@@ -7893,7 +7892,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>46</v>
@@ -7912,7 +7911,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>230</v>
@@ -7929,7 +7928,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="48"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>40329</v>
       </c>
@@ -7953,7 +7952,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>40359</v>
       </c>
@@ -7977,7 +7976,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>46</v>
@@ -7996,7 +7995,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>40390</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>40368</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>48</v>
@@ -8041,7 +8040,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>46</v>
@@ -8060,7 +8059,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>232</v>
@@ -8077,7 +8076,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>40421</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>234</v>
@@ -8120,7 +8119,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="48"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>40451</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>40482</v>
       </c>
@@ -8168,7 +8167,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>46</v>
@@ -8187,7 +8186,7 @@
         <v>40479</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>40512</v>
       </c>
@@ -8211,7 +8210,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>40543</v>
       </c>
@@ -8235,7 +8234,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>237</v>
@@ -8255,7 +8254,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="47" t="s">
         <v>238</v>
       </c>
@@ -8273,7 +8272,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>40574</v>
       </c>
@@ -8297,7 +8296,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>44</v>
@@ -8314,7 +8313,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>139</v>
@@ -8331,7 +8330,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>40602</v>
       </c>
@@ -8355,7 +8354,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>40633</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>46</v>
@@ -8400,7 +8399,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>241</v>
@@ -8417,7 +8416,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="48"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>40663</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>40653</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>44</v>
@@ -8460,7 +8459,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>242</v>
@@ -8477,7 +8476,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>40694</v>
       </c>
@@ -8501,7 +8500,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>40724</v>
       </c>
@@ -8525,7 +8524,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>40755</v>
       </c>
@@ -8549,7 +8548,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>40786</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>40676</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>246</v>
@@ -8592,7 +8591,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>40816</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>46</v>
@@ -8637,7 +8636,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>247</v>
@@ -8654,7 +8653,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>40847</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>248</v>
@@ -8695,7 +8694,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>40877</v>
       </c>
@@ -8719,7 +8718,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>40908</v>
       </c>
@@ -8745,7 +8744,7 @@
         <v>40893</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>109</v>
@@ -8767,7 +8766,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>53</v>
@@ -8787,7 +8786,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>250</v>
@@ -8807,7 +8806,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="47" t="s">
         <v>254</v>
       </c>
@@ -8825,7 +8824,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>40939</v>
       </c>
@@ -8851,7 +8850,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>44</v>
@@ -8868,7 +8867,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -8887,7 +8886,7 @@
         <v>40938</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>255</v>
@@ -8904,7 +8903,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="48"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>40968</v>
       </c>
@@ -8928,7 +8927,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>40999</v>
       </c>
@@ -8954,7 +8953,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>53</v>
@@ -8973,7 +8972,7 @@
         <v>40991</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>44</v>
@@ -8990,7 +8989,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>258</v>
@@ -9007,7 +9006,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>41029</v>
       </c>
@@ -9031,7 +9030,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>41060</v>
       </c>
@@ -9057,7 +9056,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>261</v>
@@ -9074,7 +9073,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>41090</v>
       </c>
@@ -9098,7 +9097,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>41121</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>263</v>
@@ -9141,7 +9140,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>41152</v>
       </c>
@@ -9165,7 +9164,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>41182</v>
       </c>
@@ -9189,7 +9188,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>41213</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>41189</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>268</v>
@@ -9234,7 +9233,7 @@
         <v>41210</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>41243</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>269</v>
@@ -9275,7 +9274,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>41274</v>
       </c>
@@ -9299,7 +9298,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="47" t="s">
         <v>272</v>
       </c>
@@ -9317,7 +9316,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <f>EOMONTH(A338,1)</f>
         <v>41305</v>
@@ -9344,7 +9343,7 @@
         <v>41285</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>46</v>
@@ -9366,7 +9365,7 @@
         <v>41295</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>156</v>
@@ -9386,7 +9385,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="48"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EOMONTH(A340,1)</f>
         <v>41333</v>
@@ -9411,7 +9410,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f t="shared" ref="A344:A356" si="0">EOMONTH(A343,1)</f>
         <v>41364</v>
@@ -9436,7 +9435,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f t="shared" si="0"/>
         <v>41394</v>
@@ -9461,7 +9460,7 @@
         <v>41389</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -9483,7 +9482,7 @@
         <v>41382</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>275</v>
@@ -9503,7 +9502,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="48"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f>EOMONTH(A345,1)</f>
         <v>41425</v>
@@ -9528,7 +9527,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f>EOMONTH(A348,1)</f>
         <v>41455</v>
@@ -9553,7 +9552,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f t="shared" si="0"/>
         <v>41486</v>
@@ -9578,7 +9577,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" si="0"/>
         <v>41517</v>
@@ -9603,7 +9602,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f t="shared" si="0"/>
         <v>41547</v>
@@ -9630,7 +9629,7 @@
         <v>41523</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>278</v>
@@ -9650,7 +9649,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="48"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f>EOMONTH(A352,1)</f>
         <v>41578</v>
@@ -9675,7 +9674,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <f>EOMONTH(A354,1)</f>
         <v>41608</v>
@@ -9700,7 +9699,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f t="shared" si="0"/>
         <v>41639</v>
@@ -9725,7 +9724,7 @@
         <v>41621</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>281</v>
@@ -9745,7 +9744,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="47" t="s">
         <v>282</v>
       </c>
@@ -9763,7 +9762,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>41670</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>41649</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>46</v>
@@ -9809,7 +9808,7 @@
         <v>41659</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>283</v>
@@ -9829,7 +9828,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="48"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>41698</v>
       </c>
@@ -9853,7 +9852,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>41729</v>
       </c>
@@ -9879,7 +9878,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>285</v>
@@ -9899,7 +9898,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>41759</v>
       </c>
@@ -9923,7 +9922,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>41790</v>
       </c>
@@ -9949,7 +9948,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>46</v>
@@ -9971,7 +9970,7 @@
         <v>41775</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>286</v>
@@ -9991,7 +9990,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>41820</v>
       </c>
@@ -10015,7 +10014,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>41851</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>288</v>
@@ -10061,7 +10060,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="48"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <v>41882</v>
       </c>
@@ -10085,7 +10084,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>41912</v>
       </c>
@@ -10111,7 +10110,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>293</v>
@@ -10128,7 +10127,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>41943</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>41919</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>44</v>
@@ -10171,7 +10170,7 @@
         <v>41940</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>294</v>
@@ -10188,7 +10187,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="48"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <v>41973</v>
       </c>
@@ -10212,7 +10211,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>42004</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>41971</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>44</v>
@@ -10256,7 +10255,7 @@
         <v>41987</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>295</v>
@@ -10276,7 +10275,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="47" t="s">
         <v>296</v>
       </c>
@@ -10294,7 +10293,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>42035</v>
       </c>
@@ -10318,7 +10317,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <v>42063</v>
       </c>
@@ -10342,7 +10341,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>42094</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>42069</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>46</v>
@@ -10388,7 +10387,7 @@
         <v>42089</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>270</v>
@@ -10408,7 +10407,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="48"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>42124</v>
       </c>
@@ -10432,7 +10431,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>42155</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>46</v>
@@ -10480,7 +10479,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>270</v>
@@ -10500,7 +10499,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>42185</v>
       </c>
@@ -10524,7 +10523,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>42216</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>303</v>
@@ -10570,7 +10569,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>42247</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>42221</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>302</v>
@@ -10611,7 +10610,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="48"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>42277</v>
       </c>
@@ -10635,7 +10634,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>42308</v>
       </c>
@@ -10659,7 +10658,7 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>48</v>
@@ -10681,7 +10680,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>306</v>
@@ -10701,7 +10700,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>42338</v>
       </c>
@@ -10725,7 +10724,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <v>42369</v>
       </c>
@@ -10749,7 +10748,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="47" t="s">
         <v>309</v>
       </c>
@@ -10767,7 +10766,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>42400</v>
       </c>
@@ -10791,7 +10790,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>42429</v>
       </c>
@@ -10811,7 +10810,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>42460</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>42444</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>42490</v>
       </c>
@@ -10855,7 +10854,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>42521</v>
       </c>
@@ -10881,7 +10880,7 @@
         <v>42506</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>46</v>
@@ -10903,7 +10902,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>42551</v>
       </c>
@@ -10929,7 +10928,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>313</v>
@@ -10951,7 +10950,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>42582</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>42562</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>42613</v>
       </c>
@@ -10997,7 +10996,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>42643</v>
       </c>
@@ -11017,7 +11016,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>42674</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>42649</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>49</v>
@@ -11065,7 +11064,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>42704</v>
       </c>
@@ -11085,7 +11084,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>42735</v>
       </c>
@@ -11111,7 +11110,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="47" t="s">
         <v>311</v>
       </c>
@@ -11129,7 +11128,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42736</v>
       </c>
@@ -11155,7 +11154,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42767</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -11195,7 +11194,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42795</v>
       </c>
@@ -11221,7 +11220,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42826</v>
       </c>
@@ -11241,7 +11240,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>42856</v>
       </c>
@@ -11267,7 +11266,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>76</v>
@@ -11286,7 +11285,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="15" t="s">
         <v>46</v>
@@ -11308,7 +11307,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42887</v>
       </c>
@@ -11328,7 +11327,7 @@
       <c r="J428" s="12"/>
       <c r="K428" s="15"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>42917</v>
       </c>
@@ -11348,7 +11347,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="48"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42948</v>
       </c>
@@ -11372,7 +11371,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="48"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>42979</v>
       </c>
@@ -11396,7 +11395,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>43009</v>
       </c>
@@ -11420,7 +11419,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>44</v>
@@ -11440,7 +11439,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>43040</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>43077</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43070</v>
       </c>
@@ -11492,7 +11491,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="47" t="s">
         <v>43</v>
       </c>
@@ -11510,7 +11509,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43101</v>
       </c>
@@ -11534,7 +11533,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13">
@@ -11552,7 +11551,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43132</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43160</v>
       </c>
@@ -11598,7 +11597,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43191</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43221</v>
       </c>
@@ -11646,7 +11645,7 @@
         <v>76113</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43252</v>
       </c>
@@ -11666,7 +11665,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43282</v>
       </c>
@@ -11692,7 +11691,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43313</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43344</v>
       </c>
@@ -11742,7 +11741,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43374</v>
       </c>
@@ -11762,7 +11761,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="48"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43405</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>49</v>
@@ -11808,7 +11807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43435</v>
       </c>
@@ -11828,7 +11827,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="47" t="s">
         <v>51</v>
       </c>
@@ -11846,7 +11845,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43466</v>
       </c>
@@ -11870,7 +11869,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43497</v>
       </c>
@@ -11896,7 +11895,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43525</v>
       </c>
@@ -11922,7 +11921,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>46</v>
@@ -11944,7 +11943,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>44</v>
@@ -11964,7 +11963,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>46</v>
@@ -11986,7 +11985,7 @@
         <v>43575</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43556</v>
       </c>
@@ -12006,7 +12005,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43586</v>
       </c>
@@ -12032,7 +12031,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43617</v>
       </c>
@@ -12052,7 +12051,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43647</v>
       </c>
@@ -12072,7 +12071,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="48"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43678</v>
       </c>
@@ -12092,7 +12091,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43709</v>
       </c>
@@ -12112,7 +12111,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43739</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>44</v>
@@ -12158,7 +12157,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>45</v>
@@ -12180,7 +12179,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43770</v>
       </c>
@@ -12200,7 +12199,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43800</v>
       </c>
@@ -12224,7 +12223,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="47" t="s">
         <v>55</v>
       </c>
@@ -12242,7 +12241,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43831</v>
       </c>
@@ -12266,7 +12265,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>44</v>
@@ -12286,7 +12285,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43832</v>
       </c>
@@ -12306,7 +12305,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43833</v>
       </c>
@@ -12326,7 +12325,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43834</v>
       </c>
@@ -12346,7 +12345,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43835</v>
       </c>
@@ -12366,7 +12365,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43836</v>
       </c>
@@ -12386,7 +12385,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43837</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43838</v>
       </c>
@@ -12430,7 +12429,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43839</v>
       </c>
@@ -12450,7 +12449,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43840</v>
       </c>
@@ -12470,7 +12469,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43841</v>
       </c>
@@ -12490,7 +12489,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43842</v>
       </c>
@@ -12514,7 +12513,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="47" t="s">
         <v>337</v>
       </c>
@@ -12532,7 +12531,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44197</v>
       </c>
@@ -12552,7 +12551,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44228</v>
       </c>
@@ -12572,7 +12571,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44256</v>
       </c>
@@ -12592,7 +12591,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44287</v>
       </c>
@@ -12612,7 +12611,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44317</v>
       </c>
@@ -12632,7 +12631,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44348</v>
       </c>
@@ -12652,7 +12651,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="48"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44378</v>
       </c>
@@ -12672,7 +12671,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44409</v>
       </c>
@@ -12692,7 +12691,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44440</v>
       </c>
@@ -12712,7 +12711,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44470</v>
       </c>
@@ -12732,7 +12731,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="48"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44501</v>
       </c>
@@ -12752,7 +12751,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="48"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44531</v>
       </c>
@@ -12778,7 +12777,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="47" t="s">
         <v>58</v>
       </c>
@@ -12796,7 +12795,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44592</v>
       </c>
@@ -12816,7 +12815,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44620</v>
       </c>
@@ -12836,7 +12835,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44651</v>
       </c>
@@ -12860,7 +12859,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44681</v>
       </c>
@@ -12886,7 +12885,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>350</v>
@@ -12906,7 +12905,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="48"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44712</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>350</v>
@@ -12952,7 +12951,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44742</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>348</v>
@@ -12996,7 +12995,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44773</v>
       </c>
@@ -13022,7 +13021,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>346</v>
@@ -13042,7 +13041,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="48"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44804</v>
       </c>
@@ -13068,7 +13067,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>346</v>
@@ -13088,7 +13087,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44834</v>
       </c>
@@ -13114,7 +13113,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>344</v>
@@ -13134,7 +13133,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44865</v>
       </c>
@@ -13158,7 +13157,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>48</v>
@@ -13180,7 +13179,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>341</v>
@@ -13200,7 +13199,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="48"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44895</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>72</v>
@@ -13244,7 +13243,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="48"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44926</v>
       </c>
@@ -13268,7 +13267,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="47" t="s">
         <v>338</v>
       </c>
@@ -13286,7 +13285,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44957</v>
       </c>
@@ -13312,7 +13311,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>44</v>
@@ -13332,7 +13331,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44985</v>
       </c>
@@ -13356,7 +13355,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>45016</v>
       </c>
@@ -13376,7 +13375,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45046</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45077</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45107</v>
       </c>
@@ -13448,7 +13447,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45138</v>
       </c>
@@ -13468,7 +13467,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45169</v>
       </c>
@@ -13488,7 +13487,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45199</v>
       </c>
@@ -13508,7 +13507,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45230</v>
       </c>
@@ -13528,43 +13527,51 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45260</v>
       </c>
       <c r="B530" s="20"/>
-      <c r="C530" s="13"/>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H530" s="39"/>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45291</v>
       </c>
-      <c r="B531" s="20"/>
-      <c r="C531" s="13"/>
+      <c r="B531" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C531" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G531" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H531" s="39"/>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="20"/>
-    </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K531" s="48">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45322</v>
       </c>
@@ -13582,7 +13589,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45351</v>
       </c>
@@ -13600,7 +13607,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45382</v>
       </c>
@@ -13618,7 +13625,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45412</v>
       </c>
@@ -13636,7 +13643,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45443</v>
       </c>
@@ -13654,7 +13661,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45473</v>
       </c>
@@ -13672,7 +13679,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45504</v>
       </c>
@@ -13690,7 +13697,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45535</v>
       </c>
@@ -13708,7 +13715,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>45565</v>
       </c>
@@ -13722,14 +13729,11 @@
         <v/>
       </c>
       <c r="H540" s="39"/>
-      <c r="I540" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I540" s="9"/>
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>45596</v>
       </c>
@@ -13743,14 +13747,11 @@
         <v/>
       </c>
       <c r="H541" s="39"/>
-      <c r="I541" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I541" s="9"/>
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45626</v>
       </c>
@@ -13764,14 +13765,11 @@
         <v/>
       </c>
       <c r="H542" s="39"/>
-      <c r="I542" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I542" s="9"/>
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45657</v>
       </c>
@@ -13785,14 +13783,11 @@
         <v/>
       </c>
       <c r="H543" s="39"/>
-      <c r="I543" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I543" s="9"/>
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45688</v>
       </c>
@@ -13806,14 +13801,11 @@
         <v/>
       </c>
       <c r="H544" s="39"/>
-      <c r="I544" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I544" s="9"/>
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45716</v>
       </c>
@@ -13827,14 +13819,11 @@
         <v/>
       </c>
       <c r="H545" s="39"/>
-      <c r="I545" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I545" s="9"/>
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45747</v>
       </c>
@@ -13848,14 +13837,11 @@
         <v/>
       </c>
       <c r="H546" s="39"/>
-      <c r="I546" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I546" s="9"/>
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45777</v>
       </c>
@@ -13869,14 +13855,11 @@
         <v/>
       </c>
       <c r="H547" s="39"/>
-      <c r="I547" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I547" s="9"/>
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45808</v>
       </c>
@@ -13890,14 +13873,11 @@
         <v/>
       </c>
       <c r="H548" s="39"/>
-      <c r="I548" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I548" s="9"/>
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45838</v>
       </c>
@@ -13911,14 +13891,11 @@
         <v/>
       </c>
       <c r="H549" s="39"/>
-      <c r="I549" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I549" s="9"/>
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45869</v>
       </c>
@@ -13932,14 +13909,11 @@
         <v/>
       </c>
       <c r="H550" s="39"/>
-      <c r="I550" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I550" s="9"/>
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45900</v>
       </c>
@@ -13953,14 +13927,11 @@
         <v/>
       </c>
       <c r="H551" s="39"/>
-      <c r="I551" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I551" s="9"/>
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45930</v>
       </c>
@@ -13974,14 +13945,11 @@
         <v/>
       </c>
       <c r="H552" s="39"/>
-      <c r="I552" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I552" s="9"/>
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45961</v>
       </c>
@@ -13995,14 +13963,11 @@
         <v/>
       </c>
       <c r="H553" s="39"/>
-      <c r="I553" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I553" s="9"/>
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45991</v>
       </c>
@@ -14016,14 +13981,11 @@
         <v/>
       </c>
       <c r="H554" s="39"/>
-      <c r="I554" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I554" s="9"/>
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>46022</v>
       </c>
@@ -14037,14 +13999,11 @@
         <v/>
       </c>
       <c r="H555" s="39"/>
-      <c r="I555" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I555" s="9"/>
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>46053</v>
       </c>
@@ -14058,10 +14017,7 @@
         <v/>
       </c>
       <c r="H556" s="39"/>
-      <c r="I556" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.875</v>
-      </c>
+      <c r="I556" s="9"/>
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
@@ -14081,10 +14037,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14107,28 +14063,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>32</v>
       </c>
@@ -14141,7 +14097,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14170,7 +14126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -14198,17 +14154,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14229,7 +14185,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14256,7 +14212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14282,7 +14238,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14308,7 +14264,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14334,7 +14290,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14360,7 +14316,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14386,7 +14342,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14412,7 +14368,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14438,7 +14394,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14458,7 +14414,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14478,7 +14434,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14498,7 +14454,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14519,7 +14475,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14540,7 +14496,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14561,7 +14517,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14582,7 +14538,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14603,7 +14559,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14624,7 +14580,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14645,7 +14601,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14666,7 +14622,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14687,7 +14643,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14708,7 +14664,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14729,7 +14685,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14750,7 +14706,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14771,7 +14727,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14792,7 +14748,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14813,7 +14769,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14834,7 +14790,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14855,7 +14811,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14876,7 +14832,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14897,7 +14853,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14918,7 +14874,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14927,7 +14883,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14936,7 +14892,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14945,7 +14901,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14954,7 +14910,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14963,7 +14919,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14972,7 +14928,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14981,7 +14937,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14990,7 +14946,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14999,7 +14955,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15008,7 +14964,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15017,7 +14973,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15026,7 +14982,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15035,7 +14991,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15044,7 +15000,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15053,7 +15009,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15062,7 +15018,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15071,7 +15027,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15080,7 +15036,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15089,7 +15045,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15098,7 +15054,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15107,7 +15063,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15116,7 +15072,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15125,7 +15081,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15134,7 +15090,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15143,7 +15099,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15152,7 +15108,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15161,7 +15117,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15170,7 +15126,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15179,7 +15135,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ASSESSOR/MARINDUQUE, MARISSA.xlsx
+++ b/REGULAR/ASSESSOR/MARINDUQUE, MARISSA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="363">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1086,6 +1086,42 @@
   </si>
   <si>
     <t>UT(0-0-51)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-1-6)</t>
+  </si>
+  <si>
+    <t>UT(0-1-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-4-10)</t>
+  </si>
+  <si>
+    <t>UT(0-4-17)</t>
+  </si>
+  <si>
+    <t>UT(0-0-32)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>3/1,20,22,31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-14)</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1845,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K556" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K564" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2138,12 +2174,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K556"/>
+  <dimension ref="A2:K564"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="2220" topLeftCell="A518" activePane="bottomLeft"/>
+      <pane ySplit="2220" topLeftCell="A515" activePane="bottomLeft"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="bottomLeft" activeCell="I527" sqref="I527"/>
+      <selection pane="bottomLeft" activeCell="E526" sqref="E526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2338,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>146.41799999999984</v>
+        <v>138.35999999999973</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13356,82 +13392,78 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B522" s="20"/>
-      <c r="C522" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D522" s="39"/>
+      <c r="A522" s="40"/>
+      <c r="B522" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H522" s="39"/>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20"/>
+      <c r="K522" s="48"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B523" s="20" t="s">
-        <v>46</v>
+        <v>359</v>
       </c>
       <c r="C523" s="13">
         <v>1.25</v>
       </c>
-      <c r="D523" s="39"/>
+      <c r="D523" s="39">
+        <v>4</v>
+      </c>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
       <c r="G523" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H523" s="39">
-        <v>1</v>
-      </c>
+      <c r="H523" s="39"/>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="48">
-        <v>45040</v>
+      <c r="K523" s="20" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="40">
-        <v>45077</v>
-      </c>
+      <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C524" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D524" s="39"/>
+        <v>361</v>
+      </c>
+      <c r="C524" s="13"/>
+      <c r="D524" s="39">
+        <v>0.27900000000000003</v>
+      </c>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H524" s="39">
-        <v>1</v>
-      </c>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="48">
-        <v>45061</v>
-      </c>
+      <c r="K524" s="20"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B525" s="20"/>
+        <v>45046</v>
+      </c>
+      <c r="B525" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C525" s="13">
         <v>1.25</v>
       </c>
@@ -13442,36 +13474,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H525" s="39"/>
+      <c r="H525" s="39">
+        <v>1</v>
+      </c>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="48">
+        <v>45040</v>
+      </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B526" s="20"/>
-      <c r="C526" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D526" s="39"/>
+      <c r="A526" s="40"/>
+      <c r="B526" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C526" s="13"/>
+      <c r="D526" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20"/>
+      <c r="K526" s="48"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B527" s="20"/>
+        <v>45077</v>
+      </c>
+      <c r="B527" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C527" s="13">
         <v>1.25</v>
       </c>
@@ -13482,40 +13520,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H527" s="39"/>
+      <c r="H527" s="39">
+        <v>1</v>
+      </c>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="20"/>
+      <c r="K527" s="48">
+        <v>45061</v>
+      </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A528" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B528" s="20"/>
-      <c r="C528" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D528" s="39"/>
+      <c r="A528" s="40"/>
+      <c r="B528" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C528" s="13"/>
+      <c r="D528" s="39">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20"/>
+      <c r="K528" s="48"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B529" s="20"/>
+        <v>45107</v>
+      </c>
+      <c r="B529" s="20" t="s">
+        <v>358</v>
+      </c>
       <c r="C529" s="13">
         <v>1.25</v>
       </c>
-      <c r="D529" s="39"/>
+      <c r="D529" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
       <c r="G529" s="13">
@@ -13529,13 +13575,17 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B530" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B530" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="C530" s="13">
         <v>1.25</v>
       </c>
-      <c r="D530" s="39"/>
+      <c r="D530" s="39">
+        <v>0.53500000000000003</v>
+      </c>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
       <c r="G530" s="13">
@@ -13549,15 +13599,17 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45291</v>
+        <v>45169</v>
       </c>
       <c r="B531" s="20" t="s">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="C531" s="13">
         <v>1.25</v>
       </c>
-      <c r="D531" s="39"/>
+      <c r="D531" s="39">
+        <v>1</v>
+      </c>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
       <c r="G531" s="13">
@@ -13568,16 +13620,18 @@
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
       <c r="K531" s="48">
-        <v>45287</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B532" s="20"/>
+      <c r="A532" s="40"/>
+      <c r="B532" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="C532" s="13"/>
-      <c r="D532" s="39"/>
+      <c r="D532" s="39">
+        <v>0.52100000000000002</v>
+      </c>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
       <c r="G532" s="13" t="str">
@@ -13587,20 +13641,26 @@
       <c r="H532" s="39"/>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="20"/>
+      <c r="K532" s="48"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B533" s="20"/>
-      <c r="C533" s="13"/>
-      <c r="D533" s="39"/>
+        <v>45199</v>
+      </c>
+      <c r="B533" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C533" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D533" s="39">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G533" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H533" s="39"/>
       <c r="I533" s="9"/>
@@ -13609,29 +13669,39 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B534" s="20"/>
-      <c r="C534" s="13"/>
-      <c r="D534" s="39"/>
+        <v>45230</v>
+      </c>
+      <c r="B534" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C534" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D534" s="39">
+        <v>1</v>
+      </c>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G534" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H534" s="39"/>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="20"/>
+      <c r="K534" s="48">
+        <v>45205</v>
+      </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40">
-        <v>45412</v>
-      </c>
-      <c r="B535" s="20"/>
+      <c r="A535" s="40"/>
+      <c r="B535" s="20" t="s">
+        <v>354</v>
+      </c>
       <c r="C535" s="13"/>
-      <c r="D535" s="39"/>
+      <c r="D535" s="39">
+        <v>0.11000000000000001</v>
+      </c>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
       <c r="G535" s="13" t="str">
@@ -13641,20 +13711,26 @@
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
-      <c r="K535" s="20"/>
+      <c r="K535" s="48"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45443</v>
-      </c>
-      <c r="B536" s="20"/>
-      <c r="C536" s="13"/>
-      <c r="D536" s="39"/>
+        <v>45260</v>
+      </c>
+      <c r="B536" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C536" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D536" s="39">
+        <v>0.17300000000000001</v>
+      </c>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G536" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H536" s="39"/>
       <c r="I536" s="9"/>
@@ -13663,29 +13739,37 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45473</v>
-      </c>
-      <c r="B537" s="20"/>
-      <c r="C537" s="13"/>
+        <v>45291</v>
+      </c>
+      <c r="B537" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C537" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G537" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20"/>
+      <c r="K537" s="48">
+        <v>45287</v>
+      </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40">
-        <v>45504</v>
-      </c>
-      <c r="B538" s="20"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20" t="s">
+        <v>352</v>
+      </c>
       <c r="C538" s="13"/>
-      <c r="D538" s="39"/>
+      <c r="D538" s="39">
+        <v>0.13700000000000001</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
       <c r="G538" s="13" t="str">
@@ -13695,11 +13779,11 @@
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="48"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40">
-        <v>45535</v>
+      <c r="A539" s="47" t="s">
+        <v>351</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13713,11 +13797,11 @@
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="48"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45565</v>
+        <v>45322</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13735,7 +13819,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45596</v>
+        <v>45351</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13753,7 +13837,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45626</v>
+        <v>45382</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13771,7 +13855,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45657</v>
+        <v>45412</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13789,7 +13873,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45688</v>
+        <v>45443</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13807,7 +13891,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45716</v>
+        <v>45473</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13825,7 +13909,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45747</v>
+        <v>45504</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13843,7 +13927,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45777</v>
+        <v>45535</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13861,7 +13945,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45808</v>
+        <v>45565</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13879,7 +13963,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45838</v>
+        <v>45596</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13897,7 +13981,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45869</v>
+        <v>45626</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13915,7 +13999,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45900</v>
+        <v>45657</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13933,7 +14017,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45930</v>
+        <v>45688</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13951,7 +14035,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45961</v>
+        <v>45716</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13969,7 +14053,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45991</v>
+        <v>45747</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13987,7 +14071,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46022</v>
+        <v>45777</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -14005,7 +14089,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46053</v>
+        <v>45808</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -14020,6 +14104,150 @@
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="40">
+        <v>45838</v>
+      </c>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="39"/>
+      <c r="E557" s="9"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H557" s="39"/>
+      <c r="I557" s="9"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" s="40">
+        <v>45869</v>
+      </c>
+      <c r="B558" s="20"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39"/>
+      <c r="E558" s="9"/>
+      <c r="F558" s="20"/>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H558" s="39"/>
+      <c r="I558" s="9"/>
+      <c r="J558" s="11"/>
+      <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="40">
+        <v>45900</v>
+      </c>
+      <c r="B559" s="20"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="39"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="20"/>
+      <c r="G559" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="39"/>
+      <c r="I559" s="9"/>
+      <c r="J559" s="11"/>
+      <c r="K559" s="20"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="40">
+        <v>45930</v>
+      </c>
+      <c r="B560" s="20"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="39"/>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="40">
+        <v>45961</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
+      <c r="E561" s="9"/>
+      <c r="F561" s="20"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39"/>
+      <c r="I561" s="9"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="40">
+        <v>45991</v>
+      </c>
+      <c r="B562" s="20"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="39"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="20"/>
+      <c r="G562" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H562" s="39"/>
+      <c r="I562" s="9"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="20"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" s="40">
+        <v>46022</v>
+      </c>
+      <c r="B563" s="20"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="39"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="20"/>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H563" s="39"/>
+      <c r="I563" s="9"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="20"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" s="40">
+        <v>46053</v>
+      </c>
+      <c r="B564" s="20"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="39"/>
+      <c r="E564" s="9"/>
+      <c r="F564" s="20"/>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="39"/>
+      <c r="I564" s="9"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14132,15 +14360,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.700000000000001E-2</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="J3" s="46">
         <v>10</v>
